--- a/sinomik/Template_kenaikan_kelas.xlsx
+++ b/sinomik/Template_kenaikan_kelas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\21kelompok1\sinomik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AB3895-885F-4245-892E-7D58B27C5A87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB42C1C-2C02-4285-8B30-D9CB07EE3D42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5147A8D2-EB54-41EA-8F7C-6467F1514335}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>NIS</t>
   </si>
@@ -47,9 +47,6 @@
     <t>NAIK/TINGGAL KELAS</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
     <t>KENAIKAN KELAS SISWA</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>vino bin asmodeus</t>
   </si>
   <si>
-    <t>TKJ 1</t>
-  </si>
-  <si>
     <t>RPL</t>
   </si>
   <si>
@@ -77,7 +71,19 @@
     <t>XI</t>
   </si>
   <si>
-    <t>SISWA</t>
+    <t>ID KELAS</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>XII</t>
+  </si>
+  <si>
+    <t>NOTE ID</t>
+  </si>
+  <si>
+    <t>TKJ</t>
   </si>
 </sst>
 </file>
@@ -110,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -204,17 +210,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,11 +258,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,24 +581,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438B4D3-8632-4BD5-A236-48D82337F423}">
-  <dimension ref="B1:G5"/>
+  <dimension ref="B1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -578,7 +606,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -586,8 +614,8 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -602,48 +630,81 @@
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
+      <c r="G3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>293468714672</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K8" s="14" t="s">
         <v>15</v>
+      </c>
+      <c r="L8" s="14">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/sinomik/Template_kenaikan_kelas.xlsx
+++ b/sinomik/Template_kenaikan_kelas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\21kelompok1\sinomik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB42C1C-2C02-4285-8B30-D9CB07EE3D42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEAB4B9-C4C3-4F1A-9162-4F28BDEA9CB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5147A8D2-EB54-41EA-8F7C-6467F1514335}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>NIS</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Naik Kelas</t>
   </si>
   <si>
-    <t>Tinggal kelas</t>
-  </si>
-  <si>
     <t>XI</t>
   </si>
   <si>
@@ -83,7 +80,58 @@
     <t>NOTE ID</t>
   </si>
   <si>
-    <t>TKJ</t>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>lulus</t>
+  </si>
+  <si>
+    <t>ALUMNI</t>
+  </si>
+  <si>
+    <t>SISWA</t>
+  </si>
+  <si>
+    <t>ID JURUSAN</t>
+  </si>
+  <si>
+    <t>TKJ 1</t>
+  </si>
+  <si>
+    <t>TKJ 2</t>
+  </si>
+  <si>
+    <t>TITL</t>
+  </si>
+  <si>
+    <t>TIPK 1</t>
+  </si>
+  <si>
+    <t>TIPK 2</t>
+  </si>
+  <si>
+    <t>TKR 1</t>
+  </si>
+  <si>
+    <t>TKR 2</t>
+  </si>
+  <si>
+    <t>TKR 3</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>TPM 1</t>
+  </si>
+  <si>
+    <t>TPM 2</t>
+  </si>
+  <si>
+    <t>LANJUT KELAS</t>
+  </si>
+  <si>
+    <t>LULUS</t>
   </si>
 </sst>
 </file>
@@ -116,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -183,37 +231,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -229,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -240,32 +257,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5438B4D3-8632-4BD5-A236-48D82337F423}">
-  <dimension ref="B1:L8"/>
+  <dimension ref="B1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,28 +604,33 @@
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="13"/>
+    <col min="6" max="6" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="11"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,17 +643,20 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
+      <c r="F3" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>293468714672</v>
       </c>
@@ -645,19 +664,22 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="11">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
@@ -668,48 +690,153 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="11">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K7" s="14" t="s">
+      <c r="M8" s="8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="8">
+        <v>4</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="8">
         <v>12</v>
-      </c>
-      <c r="L7" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="14">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
